--- a/biology/Zoologie/Aristelliger_cochranae/Aristelliger_cochranae.xlsx
+++ b/biology/Zoologie/Aristelliger_cochranae/Aristelliger_cochranae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aristelliger cochranae est une espèce de geckos de la famille des Sphaerodactylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aristelliger cochranae est une espèce de geckos de la famille des Sphaerodactylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre aux Caraïbes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre aux Caraïbes :
 sur l'île d'Hispaniola ;
 sur l'île de la Navasse ;
 sur l'île de La Gonâve ;
@@ -548,7 +562,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce ayant un aspect assez trapue, avec des pattes relativement courtes et massives. 
 Les couleurs varient du beige au brun en passant par le marron-rouge. Le dos présente des taches plus claires, et une bande marron sombre traverse la tête des narines à la nuque en passant par les yeux. La queue est très différente, alternant des bandes noires et blanches. Le dessous du corps est beige clair.
@@ -581,9 +597,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Doris Mable Cochran[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Doris Mable Cochran.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Grant, 1931 : A new species of Aristelliger from Navassa. Journal of the Department of Agriculture of Porto Rico, vol. 4, p. 399-400.</t>
         </is>
